--- a/Question_Set2/Programming skills/Neural Networks.xlsx
+++ b/Question_Set2/Programming skills/Neural Networks.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are developing an advanced deep-learning model for a security system that requires real-time facial recognition. The model needs to maintain high accuracy in various lighting conditions, which is challenging due to the complexity of facial features and the variability in image quality.Which of the following architectural modifications should you prioritize?', 'ques_type': 2, 'options': ['Implement a deep convolutional neural network (CNN) with residual connections.', 'Use a shallow convolutional neural network (CNN) with minimal layers.', 'Apply a recurrent neural network (RNN) layer.', 'Opt for a generative adversarial network (GAN).'], 'score': 'Implement a deep convolutional neural network (CNN) with residual connections.'}, {'title': "You're training a sophisticated neural network for natural language processing tasks. The network's convergence is slower than expected, potentially delaying the project's timeline and affecting performance.Which optimization algorithm should you use?", 'ques_type': 2, 'options': ['Adam optimizer ', 'Stochastic gradient descent ', 'RMSprop', 'Adagrad optimizer'], 'score': 'Adam optimizer '}, {'title': 'Your team needs to enhance the computer vision system of an autonomous vehicle. The focus is on developing a robust neural network model that can accurately detect and classify road signs, especially in varying weather conditions.Which of the following neural network approaches should you use?', 'ques_type': 2, 'options': ['Convolutional neural network (CNN) with data augmentation', 'Convolutional neural network (CNN) without data augmentation', 'Recurrent neural network (RNN) without data augmentation', 'Recurrent neural network (RNN) with data augmentation'], 'score': 'Convolutional neural network (CNN) with data augmentation'}, {'title': "To improve your company's chatbot, you're exploring the latest advancements in neural network models. The goal is to enhance the chatbot's ability to provide contextually relevant responses, a key factor in user satisfaction and engagement.Which neural network models should you use?", 'ques_type': 2, 'options': ['Transformer-based models', 'Traditional long short-term memory (LSTM) networks ', 'Convolutional neural networks (CNNs)', 'Autoencoders'], 'score': 'Transformer-based models'}]</t>
+    <t>questions = [
+    {
+        "title": "You are developing an advanced deep-learning model for a security system that requires real-time facial recognition. The model needs to maintain high accuracy in various lighting conditions, which is challenging due to the complexity of facial features and the variability in image quality.Which of the following architectural modifications should you prioritize?",
+        "ques_type": 2,
+        "options": [
+            "Implement a deep convolutional neural network (CNN) with residual connections.",
+            "Use a shallow convolutional neural network (CNN) with minimal layers.",
+            "Apply a recurrent neural network (RNN) layer.",
+            "Opt for a generative adversarial network (GAN)."
+        ],
+        "score": "Implement a deep convolutional neural network (CNN) with residual connections."
+    },
+    {
+        "title": "You're training a sophisticated neural network for natural language processing tasks. The network's convergence is slower than expected, potentially delaying the project's timeline and affecting performance.Which optimization algorithm should you use?",
+        "ques_type": 2,
+        "options": [
+            "Adam optimizer ",
+            "Stochastic gradient descent ",
+            "RMSprop",
+            "Adagrad optimizer"
+        ],
+        "score": "Adam optimizer"
+    },
+    {
+        "title": "Your team needs to enhance the computer vision system of an autonomous vehicle. The focus is on developing a robust neural network model that can accurately detect and classify road signs, especially in varying weather conditions.Which of the following neural network approaches should you use?",
+        "ques_type": 2,
+        "options": [
+            "Convolutional neural network (CNN) with data augmentation",
+            "Convolutional neural network (CNN) without data augmentation",
+            "Recurrent neural network (RNN) without data augmentation",
+            "Recurrent neural network (RNN) with data augmentation"
+        ],
+        "score": "Convolutional neural network (CNN) with data augmentation"
+    },
+    {
+        "title": "To improve your company's chatbot, you're exploring the latest advancements in neural network models. The goal is to enhance the chatbot's ability to provide contextually relevant responses, a key factor in user satisfaction and engagement.Which neural network models should you use?",
+        "ques_type": 2,
+        "options": [
+            "Transformer-based models",
+            "Traditional long short-term memory (LSTM) networks ",
+            "Convolutional neural networks (CNNs)",
+            "Autoencoders"
+        ],
+        "score": "Transformer-based models"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
